--- a/一体站项目 - V4质控/API/斯坦道仪器多参数/Documents/斯坦道/斯坦道自研传感器部分内部参数读取.xlsx
+++ b/一体站项目 - V4质控/API/斯坦道仪器多参数/Documents/斯坦道/斯坦道自研传感器部分内部参数读取.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\std\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\斯坦道多参数\斯坦道仪器多参数\Documents\斯坦道\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B208D17-4D0E-4ABE-A549-1EBB39FDA2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25485" yWindow="-105" windowWidth="25815" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,14 +163,18 @@
   </si>
   <si>
     <t>溶解氧目前不支持读信号值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +389,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,15 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,35 +686,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF382A8D-5BC2-4CAA-8A7D-B6788D613244}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.4140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="15.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="15" thickTop="1">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -729,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickTop="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -747,7 +750,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -785,7 +788,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -804,7 +807,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -823,7 +826,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -842,18 +845,18 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1"/>
+    <row r="11" spans="1:6" ht="15" thickTop="1">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickTop="1">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -887,11 +890,11 @@
       <c r="E13" s="10">
         <v>2600</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -908,9 +911,9 @@
         <f>DEC2HEX(HEX2DEC(E13)+D13)</f>
         <v>2602</v>
       </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -927,9 +930,9 @@
         <f t="shared" ref="E15:E18" si="1">DEC2HEX(HEX2DEC(E14)+D14)</f>
         <v>2604</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -946,9 +949,9 @@
         <f t="shared" si="1"/>
         <v>2606</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -965,9 +968,9 @@
         <f t="shared" si="1"/>
         <v>2608</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -984,9 +987,9 @@
         <f t="shared" si="1"/>
         <v>260A</v>
       </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickTop="1">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1002,11 +1005,11 @@
       <c r="E19" s="10">
         <v>4600</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1023,9 +1026,9 @@
         <f>DEC2HEX(HEX2DEC(E19)+D19)</f>
         <v>4602</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -1042,9 +1045,9 @@
         <f t="shared" ref="E21:E24" si="2">DEC2HEX(HEX2DEC(E20)+D20)</f>
         <v>4604</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1061,9 +1064,9 @@
         <f t="shared" si="2"/>
         <v>4606</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1080,9 +1083,9 @@
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1099,9 +1102,9 @@
         <f t="shared" si="2"/>
         <v>460A</v>
       </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickTop="1">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1117,11 +1120,11 @@
       <c r="E25" s="10">
         <v>6600</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1138,9 +1141,9 @@
         <f>DEC2HEX(HEX2DEC(E25)+D25)</f>
         <v>6602</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1157,9 +1160,9 @@
         <f t="shared" ref="E27:E30" si="3">DEC2HEX(HEX2DEC(E26)+D26)</f>
         <v>6604</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1176,9 +1179,9 @@
         <f t="shared" si="3"/>
         <v>6606</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
@@ -1195,9 +1198,9 @@
         <f t="shared" si="3"/>
         <v>6608</v>
       </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1214,20 +1217,23 @@
         <f t="shared" si="3"/>
         <v>660A</v>
       </c>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1"/>
+    <row r="33" spans="1:7" ht="15" thickTop="1">
+      <c r="A33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickTop="1">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1269,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1288,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1307,7 @@
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -1358,18 +1364,18 @@
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="42" spans="1:7" ht="15" thickBot="1"/>
+    <row r="43" spans="1:7" ht="15" thickTop="1">
+      <c r="A43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickTop="1">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1411,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +1506,7 @@
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
         <v>9</v>
       </c>
@@ -1519,7 +1525,7 @@
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -1538,19 +1544,20 @@
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="54" spans="1:6" ht="15" thickBot="1"/>
+    <row r="55" spans="1:6" ht="15" thickTop="1">
+      <c r="A55" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A43:F43"/>
@@ -1558,7 +1565,6 @@
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="F25:F30"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一体站项目 - V4质控/API/斯坦道仪器多参数/Documents/斯坦道/斯坦道自研传感器部分内部参数读取.xlsx
+++ b/一体站项目 - V4质控/API/斯坦道仪器多参数/Documents/斯坦道/斯坦道自研传感器部分内部参数读取.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\斯坦道多参数\斯坦道仪器多参数\Documents\斯坦道\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14182C6C-A5A5-41A7-ABBF-356741601DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25485" yWindow="-105" windowWidth="25815" windowHeight="13905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +169,31 @@
   </si>
   <si>
     <t>8000H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8004H</t>
+  </si>
+  <si>
+    <t>8002H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8006H</t>
+  </si>
+  <si>
+    <t>8008H</t>
+  </si>
+  <si>
+    <t>800AH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,13 +384,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,13 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
@@ -704,7 +723,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickTop="1">
+    <row r="1" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -714,7 +733,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -732,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickTop="1">
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -750,7 +769,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -769,7 +788,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -788,7 +807,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -807,7 +826,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -826,7 +845,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -845,8 +864,8 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1"/>
-    <row r="11" spans="1:6" ht="15" thickTop="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -856,7 +875,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -874,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickTop="1">
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -894,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -913,7 +932,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -932,7 +951,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -951,7 +970,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -970,7 +989,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1008,7 @@
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1">
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1047,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1066,7 @@
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1085,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1104,7 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1123,7 @@
       </c>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickTop="1">
+    <row r="25" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1162,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1181,7 @@
       </c>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1200,7 @@
       </c>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1219,7 @@
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1219,8 +1238,8 @@
       </c>
       <c r="F30" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1"/>
-    <row r="33" spans="1:7" ht="15" thickTop="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickTop="1">
+    <row r="35" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -1264,12 +1283,12 @@
       <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35" s="10">
-        <v>2600</v>
+      <c r="E35" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -1282,13 +1301,12 @@
       <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="str">
-        <f>DEC2HEX(HEX2DEC(E35)+D35)</f>
-        <v>2602</v>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
@@ -1301,13 +1319,12 @@
       <c r="D37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="11" t="str">
-        <f t="shared" ref="E37:E40" si="4">DEC2HEX(HEX2DEC(E36)+D36)</f>
-        <v>2604</v>
+      <c r="E37" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
@@ -1320,13 +1337,12 @@
       <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="E38" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>2606</v>
+      <c r="E38" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
@@ -1339,13 +1355,12 @@
       <c r="D39" s="2">
         <v>2</v>
       </c>
-      <c r="E39" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>2608</v>
+      <c r="E39" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -1358,14 +1373,13 @@
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>260A</v>
+      <c r="E40" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1"/>
-    <row r="43" spans="1:7" ht="15" thickTop="1">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1389,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickTop="1">
+    <row r="45" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1425,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1444,7 @@
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
@@ -1444,12 +1458,12 @@
         <v>2</v>
       </c>
       <c r="E47" s="11" t="str">
-        <f t="shared" ref="E47:E48" si="5">DEC2HEX(HEX2DEC(E46)+D46)</f>
+        <f t="shared" ref="E47:E48" si="4">DEC2HEX(HEX2DEC(E46)+D46)</f>
         <v>2604</v>
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1463,12 +1477,12 @@
         <v>2</v>
       </c>
       <c r="E48" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2606</v>
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>26</v>
       </c>
@@ -1482,12 +1496,12 @@
         <v>2</v>
       </c>
       <c r="E49" s="11" t="str">
-        <f t="shared" ref="E49" si="6">DEC2HEX(HEX2DEC(E48)+D48)</f>
+        <f t="shared" ref="E49" si="5">DEC2HEX(HEX2DEC(E48)+D48)</f>
         <v>2608</v>
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
@@ -1501,12 +1515,12 @@
         <v>2</v>
       </c>
       <c r="E50" s="11" t="str">
-        <f t="shared" ref="E50:E52" si="7">DEC2HEX(HEX2DEC(E49)+D49)</f>
+        <f t="shared" ref="E50:E52" si="6">DEC2HEX(HEX2DEC(E49)+D49)</f>
         <v>260A</v>
       </c>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>9</v>
       </c>
@@ -1520,12 +1534,12 @@
         <v>2</v>
       </c>
       <c r="E51" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>260C</v>
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -1539,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>260E</v>
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1"/>
-    <row r="55" spans="1:6" ht="15" thickTop="1">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>32</v>
       </c>
